--- a/Portfolio/Transactions_13040737_2020.xlsx
+++ b/Portfolio/Transactions_13040737_2020.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Portfolio\Old\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BC037-F097-4722-B6B0-1857D1DD191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="34">
   <si>
     <t>Date d'opération</t>
   </si>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>78800/775644PEA</t>
-  </si>
-  <si>
-    <t>*Delisted 20181010 (Let's Gowex SA) - NOCT</t>
   </si>
   <si>
     <t>Technicolor</t>
@@ -124,49 +127,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -178,71 +151,351 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.84765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.84765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.84765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.41796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.27734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -286,7 +539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44165</v>
       </c>
@@ -330,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44165</v>
       </c>
@@ -362,7 +615,7 @@
         <v>100</v>
       </c>
       <c r="K3">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -374,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44166</v>
       </c>
@@ -418,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44167</v>
       </c>
@@ -462,7 +715,7 @@
         <v>-998.22</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44167</v>
       </c>
@@ -506,7 +759,7 @@
         <v>-508.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44169</v>
       </c>
@@ -541,16 +794,16 @@
         <v>27.69</v>
       </c>
       <c r="L7">
-        <v>-556.3</v>
+        <v>-556.29999999999995</v>
       </c>
       <c r="M7">
-        <v>-556.3</v>
+        <v>-556.29999999999995</v>
       </c>
       <c r="N7">
-        <v>-556.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>-556.29999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44172</v>
       </c>
@@ -594,7 +847,7 @@
         <v>964.02</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44172</v>
       </c>
@@ -638,7 +891,7 @@
         <v>-601.6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44175</v>
       </c>
@@ -682,7 +935,7 @@
         <v>626.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44175</v>
       </c>
@@ -726,7 +979,7 @@
         <v>-465.7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44176</v>
       </c>
@@ -761,16 +1014,16 @@
         <v>2.77</v>
       </c>
       <c r="L12">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="M12">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="N12">
-        <v>274.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>274.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44179</v>
       </c>
@@ -814,7 +1067,7 @@
         <v>-608</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44179</v>
       </c>
@@ -849,16 +1102,16 @@
         <v>7.46</v>
       </c>
       <c r="L14">
-        <v>594.3</v>
+        <v>594.29999999999995</v>
       </c>
       <c r="M14">
-        <v>594.3</v>
+        <v>594.29999999999995</v>
       </c>
       <c r="N14">
-        <v>594.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>594.29999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44179</v>
       </c>
@@ -902,7 +1155,7 @@
         <v>-642.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44182</v>
       </c>
@@ -937,16 +1190,16 @@
         <v>7.66</v>
       </c>
       <c r="L16">
-        <v>610.3</v>
+        <v>610.29999999999995</v>
       </c>
       <c r="M16">
-        <v>610.3</v>
+        <v>610.29999999999995</v>
       </c>
       <c r="N16">
-        <v>610.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>610.29999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44182</v>
       </c>
@@ -990,7 +1243,7 @@
         <v>-840.7</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44182</v>
       </c>
@@ -1034,7 +1287,7 @@
         <v>2148.6</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44186</v>
       </c>
@@ -1078,7 +1331,7 @@
         <v>-835.3</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44188</v>
       </c>
@@ -1122,7 +1375,7 @@
         <v>268.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44188</v>
       </c>
@@ -1166,7 +1419,7 @@
         <v>658.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44165</v>
       </c>
@@ -1180,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>364900</v>
+        <v>42782</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1192,13 +1445,13 @@
         <v>19</v>
       </c>
       <c r="I22">
-        <v>1880807919</v>
+        <v>1880842029</v>
       </c>
       <c r="J22">
-        <v>962</v>
+        <v>880</v>
       </c>
       <c r="K22">
-        <v>9.25</v>
+        <v>1.26</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44165</v>
       </c>
@@ -1221,10 +1474,10 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>42782</v>
+        <v>3853478</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1236,13 +1489,13 @@
         <v>19</v>
       </c>
       <c r="I23">
-        <v>1880842029</v>
+        <v>1880966299</v>
       </c>
       <c r="J23">
-        <v>880</v>
+        <v>200</v>
       </c>
       <c r="K23">
-        <v>1.26</v>
+        <v>15.7</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44165</v>
       </c>
@@ -1265,10 +1518,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>3853478</v>
+        <v>402632</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1280,13 +1533,13 @@
         <v>19</v>
       </c>
       <c r="I24">
-        <v>1880966299</v>
+        <v>1881075675</v>
       </c>
       <c r="J24">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="K24">
-        <v>15.7</v>
+        <v>6.15</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1298,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44165</v>
       </c>
@@ -1312,7 +1565,7 @@
         <v>31</v>
       </c>
       <c r="E25">
-        <v>402632</v>
+        <v>6110464</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1324,13 +1577,13 @@
         <v>19</v>
       </c>
       <c r="I25">
-        <v>1881075675</v>
+        <v>1881146087</v>
       </c>
       <c r="J25">
-        <v>162</v>
+        <v>563</v>
       </c>
       <c r="K25">
-        <v>6.15</v>
+        <v>3.55</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1342,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44165</v>
       </c>
@@ -1356,7 +1609,7 @@
         <v>32</v>
       </c>
       <c r="E26">
-        <v>6110464</v>
+        <v>117274</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1368,13 +1621,13 @@
         <v>19</v>
       </c>
       <c r="I26">
-        <v>1881146087</v>
+        <v>1881150891</v>
       </c>
       <c r="J26">
-        <v>563</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>3.55</v>
+        <v>15.38</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1386,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44165</v>
       </c>
@@ -1400,7 +1653,7 @@
         <v>33</v>
       </c>
       <c r="E27">
-        <v>117274</v>
+        <v>130703</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1412,13 +1665,13 @@
         <v>19</v>
       </c>
       <c r="I27">
-        <v>1881150891</v>
+        <v>1881162729</v>
       </c>
       <c r="J27">
-        <v>112</v>
+        <v>1140</v>
       </c>
       <c r="K27">
-        <v>15.38</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1430,9 +1683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1441,42 +1694,42 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>130703</v>
+        <v>3853478</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
       </c>
       <c r="I28">
-        <v>1881162729</v>
+        <v>1884026445</v>
       </c>
       <c r="J28">
-        <v>1140</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>13.61</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-996.03</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-996.03</v>
       </c>
       <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>-996.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1500,27 +1753,27 @@
         <v>19</v>
       </c>
       <c r="I29">
-        <v>1884026445</v>
+        <v>1886519216</v>
       </c>
       <c r="J29">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>13.61</v>
+        <v>13.25</v>
       </c>
       <c r="L29">
-        <v>-996.03</v>
+        <v>-996.32</v>
       </c>
       <c r="M29">
-        <v>-996.03</v>
+        <v>-996.32</v>
       </c>
       <c r="N29">
-        <v>-996.03</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>-996.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1529,40 +1782,40 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>3853478</v>
+        <v>117274</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
       </c>
       <c r="I30">
-        <v>1886519216</v>
+        <v>1889465225</v>
       </c>
       <c r="J30">
-        <v>75</v>
+        <v>-35</v>
       </c>
       <c r="K30">
-        <v>13.25</v>
+        <v>28.46</v>
       </c>
       <c r="L30">
-        <v>-996.32</v>
+        <v>993.6</v>
       </c>
       <c r="M30">
-        <v>-996.32</v>
+        <v>993.6</v>
       </c>
       <c r="N30">
-        <v>-996.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>993.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44174</v>
       </c>
@@ -1573,10 +1826,10 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>117274</v>
+        <v>42782</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1588,27 +1841,27 @@
         <v>19</v>
       </c>
       <c r="I31">
-        <v>1889465225</v>
+        <v>1889470901</v>
       </c>
       <c r="J31">
-        <v>-35</v>
+        <v>-530</v>
       </c>
       <c r="K31">
-        <v>28.46</v>
+        <v>1.89</v>
       </c>
       <c r="L31">
-        <v>993.6</v>
+        <v>996.55</v>
       </c>
       <c r="M31">
-        <v>993.6</v>
+        <v>996.55</v>
       </c>
       <c r="N31">
-        <v>993.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>996.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44174</v>
+        <v>44180</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1617,7 +1870,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>42782</v>
@@ -1632,25 +1885,25 @@
         <v>19</v>
       </c>
       <c r="I32">
-        <v>1889470901</v>
+        <v>1893766607</v>
       </c>
       <c r="J32">
-        <v>-530</v>
+        <v>-350</v>
       </c>
       <c r="K32">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="L32">
-        <v>996.55</v>
+        <v>579.27</v>
       </c>
       <c r="M32">
-        <v>996.55</v>
+        <v>579.27</v>
       </c>
       <c r="N32">
-        <v>996.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>579.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44180</v>
       </c>
@@ -1661,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>42782</v>
+        <v>117274</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1676,25 +1929,25 @@
         <v>19</v>
       </c>
       <c r="I33">
-        <v>1893766607</v>
+        <v>1893997122</v>
       </c>
       <c r="J33">
-        <v>-350</v>
+        <v>-77</v>
       </c>
       <c r="K33">
-        <v>1.66</v>
+        <v>27.7</v>
       </c>
       <c r="L33">
-        <v>579.27</v>
+        <v>2127.52</v>
       </c>
       <c r="M33">
-        <v>579.27</v>
+        <v>2127.52</v>
       </c>
       <c r="N33">
-        <v>579.27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>2127.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44180</v>
       </c>
@@ -1705,10 +1958,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>117274</v>
+        <v>402632</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1720,25 +1973,25 @@
         <v>19</v>
       </c>
       <c r="I34">
-        <v>1893997122</v>
+        <v>1893997265</v>
       </c>
       <c r="J34">
-        <v>-77</v>
+        <v>-162</v>
       </c>
       <c r="K34">
-        <v>27.7</v>
+        <v>6.57</v>
       </c>
       <c r="L34">
-        <v>2127.52</v>
+        <v>1059.3399999999999</v>
       </c>
       <c r="M34">
-        <v>2127.52</v>
+        <v>1059.3399999999999</v>
       </c>
       <c r="N34">
-        <v>2127.52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>1059.3399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44180</v>
       </c>
@@ -1749,10 +2002,10 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>402632</v>
+        <v>130703</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1764,25 +2017,25 @@
         <v>19</v>
       </c>
       <c r="I35">
-        <v>1893997265</v>
+        <v>1893997359</v>
       </c>
       <c r="J35">
-        <v>-162</v>
+        <v>-1140</v>
       </c>
       <c r="K35">
-        <v>6.57</v>
+        <v>1.73</v>
       </c>
       <c r="L35">
-        <v>1059.34</v>
+        <v>1964.92</v>
       </c>
       <c r="M35">
-        <v>1059.34</v>
+        <v>1964.92</v>
       </c>
       <c r="N35">
-        <v>1059.34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>1964.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44180</v>
       </c>
@@ -1793,10 +2046,10 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>130703</v>
+        <v>6110464</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1808,71 +2061,26 @@
         <v>19</v>
       </c>
       <c r="I36">
-        <v>1893997359</v>
+        <v>1893997459</v>
       </c>
       <c r="J36">
-        <v>-1140</v>
+        <v>-563</v>
       </c>
       <c r="K36">
-        <v>1.73</v>
+        <v>3.59</v>
       </c>
       <c r="L36">
-        <v>1964.92</v>
+        <v>2016.17</v>
       </c>
       <c r="M36">
-        <v>1964.92</v>
+        <v>2016.17</v>
       </c>
       <c r="N36">
-        <v>1964.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1">
-        <v>44180</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37">
-        <v>6110464</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37">
-        <v>1893997459</v>
-      </c>
-      <c r="J37">
-        <v>-563</v>
-      </c>
-      <c r="K37">
-        <v>3.59</v>
-      </c>
-      <c r="L37">
-        <v>2016.17</v>
-      </c>
-      <c r="M37">
-        <v>2016.17</v>
-      </c>
-      <c r="N37">
         <v>2016.17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>